--- a/result/Recommender DF v4.xlsx
+++ b/result/Recommender DF v4.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -832,12 +832,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -934,12 +934,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -954,12 +954,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -969,47 +969,47 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1026,12 +1026,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.33}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.33}</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1071,52 +1071,52 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Sana Ahmadi'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.75, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.75, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge', 'Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge', 'Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1183,12 +1183,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.33}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.33}</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1325,32 +1325,32 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.33}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.33}</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1402,12 +1402,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1422,12 +1422,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1437,47 +1437,47 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge', 'Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge', 'Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1768,12 +1768,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1885,17 +1885,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.33}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.33}</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1972,12 +1972,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.75, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.75, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2002,17 +2002,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.75, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.75, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -2022,47 +2022,47 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -2089,12 +2089,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2119,17 +2119,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -2139,47 +2139,47 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.75, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.75, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -2241,12 +2241,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -2256,47 +2256,47 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2455,12 +2455,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.75, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.75, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2470,17 +2470,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.75, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.75, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -2490,47 +2490,47 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2592,12 +2592,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -2607,47 +2607,47 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge', 'Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge', 'Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.75, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.75, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2724,47 +2724,47 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2841,7 +2841,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2943,7 +2943,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2963,42 +2963,42 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -3015,12 +3015,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -3065,12 +3065,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
     </row>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -3259,7 +3259,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge', 'Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge', 'Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3391,12 +3391,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.75, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.75, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -3406,17 +3406,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.75, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Expert'], 'CONFIDENCE_RATING': 3.75, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -3426,47 +3426,47 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -3483,12 +3483,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1', '-1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi'], 'NUM_OF_EXPERT_COMMENTS': 4, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.25}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1', '-1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3'], 'NUM_OF_EXPERT_COMMENTS': 4, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.25}</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3508,12 +3508,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -3528,67 +3528,67 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1', '-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Sana Ahmadi', 'Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 4, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Expert', 'Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.23, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.75}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1', '+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3', 'Expert 4', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 4, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Expert', 'Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.23, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.75}</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3645,12 +3645,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Sana Ahmadi'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert', 'Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert', 'Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -3660,47 +3660,47 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3757,12 +3757,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'pipeline issue', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -3834,12 +3834,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.33}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.33}</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3849,27 +3849,27 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3879,12 +3879,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Jacob Sanz', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 2'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -3894,47 +3894,47 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.33}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.33}</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Jacob Sanz', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 2'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Jacob Sanz', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 2'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Jacob Sanz', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 2'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Elizabeth  Dupre', 'Jacob Sanz', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Good knowledge', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.166666666666666, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.23, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 2', 'Expert 5'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Good knowledge', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.166666666666666, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.23, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -4078,7 +4078,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -4093,7 +4093,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4108,12 +4108,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong format', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -4185,62 +4185,62 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 3'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Expert', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.25, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi', 'Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1', 'Expert 3'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge', 'Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'failed', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong data', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong data', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Expert'], 'CONFIDENCE_RATING': 4.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi', 'Greg Kiar'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3', 'Expert 4'], 'NUM_OF_EXPERT_COMMENTS': 3, 'EXPERT_CONFIDENCE_LIST': ['Expert', 'Good knowledge', 'Good knowledge', 'Expert'], 'CONFIDENCE_RATING': 3.5, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.15, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.67}</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['-1', '+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'not available', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -4250,51 +4250,51 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong data', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'wrong data', 'EXECUTION_RESULT_BRIEF': 'failed', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Tristan Glatard'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
+          <t>{'EXPERT_COMMENTS': ['+1', '-1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 1'], 'NUM_OF_EXPERT_COMMENTS': 2, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 0.5}</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Sana Ahmadi'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
+          <t>{'EXPERT_COMMENTS': ['+1'], 'EXPERTS_COMMENTED_SUCCESS': ['Expert 3'], 'NUM_OF_EXPERT_COMMENTS': 1, 'EXPERT_CONFIDENCE_LIST': ['Good knowledge', 'Good knowledge'], 'CONFIDENCE_RATING': 3.0, 'CONFIDENCE_SUCCESS_RATING': 0, 'EXECUTION_RESULT_DETAILS': 'success', 'EXECUTION_RESULT_BRIEF': 'success', 'FRACTION_RATE_SUCCESS_OVER_ALL': 0.08, 'FRACTION_RATE_SUCCESS_OVER_COMMENTED': 1.0}</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>